--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H2">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I2">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J2">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N2">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O2">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P2">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q2">
-        <v>10.48013579669267</v>
+        <v>1.058689488119666</v>
       </c>
       <c r="R2">
-        <v>94.32122217023401</v>
+        <v>9.528205393077</v>
       </c>
       <c r="S2">
-        <v>0.137743265214939</v>
+        <v>0.03382432570728858</v>
       </c>
       <c r="T2">
-        <v>0.137743265214939</v>
+        <v>0.03382432570728858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H3">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I3">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J3">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.570442</v>
       </c>
       <c r="O3">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P3">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q3">
-        <v>20.761521012974</v>
+        <v>3.723578149634</v>
       </c>
       <c r="R3">
-        <v>186.853689116766</v>
+        <v>33.512203346706</v>
       </c>
       <c r="S3">
-        <v>0.272874297684014</v>
+        <v>0.1189654960619833</v>
       </c>
       <c r="T3">
-        <v>0.2728742976840141</v>
+        <v>0.1189654960619833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H4">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I4">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J4">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.977353</v>
       </c>
       <c r="O4">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P4">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q4">
-        <v>19.553624717891</v>
+        <v>3.506941986581</v>
       </c>
       <c r="R4">
-        <v>175.982622461019</v>
+        <v>31.562477879229</v>
       </c>
       <c r="S4">
-        <v>0.2569985893007061</v>
+        <v>0.1120441350573545</v>
       </c>
       <c r="T4">
-        <v>0.2569985893007061</v>
+        <v>0.1120441350573545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N5">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O5">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P5">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q5">
-        <v>1.760697151643556</v>
+        <v>0.9917108086262222</v>
       </c>
       <c r="R5">
-        <v>15.846274364792</v>
+        <v>8.925397277636</v>
       </c>
       <c r="S5">
-        <v>0.02314131986711108</v>
+        <v>0.03168440772750953</v>
       </c>
       <c r="T5">
-        <v>0.02314131986711107</v>
+        <v>0.03168440772750953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.570442</v>
       </c>
       <c r="O6">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P6">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q6">
         <v>3.488003554578667</v>
@@ -818,10 +818,10 @@
         <v>31.392031991208</v>
       </c>
       <c r="S6">
-        <v>0.04584377607402757</v>
+        <v>0.1114390665272324</v>
       </c>
       <c r="T6">
-        <v>0.04584377607402758</v>
+        <v>0.1114390665272324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.977353</v>
       </c>
       <c r="O7">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P7">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q7">
         <v>3.285073019374667</v>
@@ -880,10 +880,10 @@
         <v>29.565657174372</v>
       </c>
       <c r="S7">
-        <v>0.04317660504942737</v>
+        <v>0.1049555899311952</v>
       </c>
       <c r="T7">
-        <v>0.04317660504942737</v>
+        <v>0.1049555899311952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H8">
         <v>1.382894</v>
       </c>
       <c r="I8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N8">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O8">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P8">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q8">
-        <v>3.457013429650223</v>
+        <v>1.947159158262888</v>
       </c>
       <c r="R8">
-        <v>31.113120866852</v>
+        <v>17.524432424366</v>
       </c>
       <c r="S8">
-        <v>0.04543646446281641</v>
+        <v>0.06221025740983773</v>
       </c>
       <c r="T8">
-        <v>0.04543646446281641</v>
+        <v>0.06221025740983773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H9">
         <v>1.382894</v>
       </c>
       <c r="I9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>44.570442</v>
       </c>
       <c r="O9">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P9">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q9">
-        <v>6.848466313238667</v>
+        <v>6.848466313238666</v>
       </c>
       <c r="R9">
-        <v>61.636196819148</v>
+        <v>61.63619681914799</v>
       </c>
       <c r="S9">
-        <v>0.09001124889981925</v>
+        <v>0.2188033014154146</v>
       </c>
       <c r="T9">
-        <v>0.09001124889981926</v>
+        <v>0.2188033014154146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H10">
         <v>1.382894</v>
       </c>
       <c r="I10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>41.977353</v>
       </c>
       <c r="O10">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P10">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q10">
-        <v>6.450025511064667</v>
+        <v>6.450025511064666</v>
       </c>
       <c r="R10">
         <v>58.050229599582</v>
       </c>
       <c r="S10">
-        <v>0.08477443344713913</v>
+        <v>0.2060734201621842</v>
       </c>
       <c r="T10">
-        <v>0.08477443344713913</v>
+        <v>0.2060734201621842</v>
       </c>
     </row>
   </sheetData>
